--- a/sop/alunos.xlsx
+++ b/sop/alunos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Isaac\GitHub\java\senai\src\aula15\pesquisa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Isaac\GitHub\java\sop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284C041E-B518-46F4-A066-B506C775EE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43096BD7-0D16-4B2F-801E-B7E2ACF4E95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="1740" windowWidth="8040" windowHeight="11385" xr2:uid="{FCBA2DAD-6313-4972-8D62-2F3E55E09DBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCBA2DAD-6313-4972-8D62-2F3E55E09DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -149,11 +149,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,7 +171,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -460,7 +459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -471,7 +470,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +686,7 @@
         <f>AVERAGEIF($D$2:$D$12,A16,$C$2:$C$12)</f>
         <v>9</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <f>COUNTIF($D$2:$D$12,A16)</f>
         <v>2</v>
       </c>
@@ -700,7 +699,7 @@
         <f t="shared" ref="B17:B19" si="1">AVERAGEIF($D$2:$D$12,A17,$C$2:$C$12)</f>
         <v>15</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <f t="shared" ref="C17:C19" si="2">COUNTIF($D$2:$D$12,A17)</f>
         <v>1</v>
       </c>
@@ -713,7 +712,7 @@
         <f t="shared" si="1"/>
         <v>39.25</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -726,7 +725,7 @@
         <f t="shared" si="1"/>
         <v>78.5</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
